--- a/analysis/gender_spending.xlsx
+++ b/analysis/gender_spending.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>728019000</v>
+        <v>679176000</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>675358000</v>
+        <v>724201000</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1559065000</v>
+        <v>1479449000</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1479700600</v>
+        <v>1559316600</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1333603000</v>
+        <v>1264880000</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1276631200</v>
+        <v>1345354200</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1532882000</v>
+        <v>1461649000</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1487365000</v>
+        <v>1558598000</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>남</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2632872000</v>
+        <v>2481472000</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>여</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2569482000</v>
+        <v>2720882000</v>
       </c>
     </row>
   </sheetData>
